--- a/insurance_data.xlsx
+++ b/insurance_data.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
